--- a/formatexcel/new /absensi-hilman.xlsx
+++ b/formatexcel/new /absensi-hilman.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>TANGGAL_ABSEN</t>
   </si>
@@ -47,7 +47,10 @@
     <t>NIK</t>
   </si>
   <si>
-    <t>0111002</t>
+    <t>0111001</t>
+  </si>
+  <si>
+    <t>0518001</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,6 +876,466 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43618</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43619</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43620</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43621</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43622</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43624</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43625</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43626</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43627</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43628</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43629</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43630</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43631</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43632</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43633</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43634</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43635</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43636</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43637</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43638</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43639</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
